--- a/EfficiencyStudy/results/powhegMiNNLO/report_Mu8Leg2_systematics.xlsx
+++ b/EfficiencyStudy/results/powhegMiNNLO/report_Mu8Leg2_systematics.xlsx
@@ -2372,52 +2372,52 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.922</t>
+          <t>0.928</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.005 (0.575%)</t>
+          <t>0.005 (0.528%)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.923 (0.054%)</t>
+          <t>0.923 (-0.625%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.923 (0.098%)</t>
+          <t>0.931 (0.248%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.921 (-0.076%)</t>
+          <t>0.927 (-0.183%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.922 (-0.011%)</t>
+          <t>0.928 (-0.022%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.922 (-0.054%)</t>
+          <t>0.928 (-0.086%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.921 (-0.065%)</t>
+          <t>0.928 (-0.065%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.923 (0.087%)</t>
+          <t>0.929 (0.086%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.006 (0.60%)</t>
+          <t>0.008 (0.89%)</t>
         </is>
       </c>
     </row>
@@ -4368,52 +4368,52 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.932</t>
+          <t>0.935</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.002 (0.236%)</t>
+          <t>0.002 (0.225%)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.935 (0.322%)</t>
+          <t>0.935 (-0.064%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.930 (-0.204%)</t>
+          <t>0.935 (-0.043%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.933 (0.107%)</t>
+          <t>0.936 (0.043%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.932 (0.011%)</t>
+          <t>0.935 (0.000%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.932 (0.000%)</t>
+          <t>0.935 (0.000%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.931 (-0.021%)</t>
+          <t>0.935 (-0.011%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.931 (-0.064%)</t>
+          <t>0.935 (-0.053%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.004 (0.47%)</t>
+          <t>0.002 (0.25%)</t>
         </is>
       </c>
     </row>
@@ -6364,7 +6364,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.929</t>
+          <t>0.932</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6374,42 +6374,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.932 (0.258%)</t>
+          <t>0.932 (-0.011%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.928 (-0.140%)</t>
+          <t>0.932 (-0.011%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.930 (0.086%)</t>
+          <t>0.932 (0.032%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.930 (0.011%)</t>
+          <t>0.932 (0.011%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.929 (-0.011%)</t>
+          <t>0.932 (0.000%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.929 (-0.011%)</t>
+          <t>0.932 (0.000%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.929 (-0.011%)</t>
+          <t>0.932 (0.000%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.003 (0.31%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -8360,52 +8360,52 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.002</t>
+          <t>1.004</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.002 (0.236%)</t>
+          <t>0.002 (0.225%)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.003 (0.064%)</t>
+          <t>1.003 (-0.053%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.002 (-0.064%)</t>
+          <t>1.003 (-0.032%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.003 (0.021%)</t>
+          <t>1.004 (0.011%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1.002 (-0.000%)</t>
+          <t>1.003 (-0.011%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.002 (0.011%)</t>
+          <t>1.004 (0.000%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1.002 (-0.011%)</t>
+          <t>1.003 (-0.011%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1.002 (-0.054%)</t>
+          <t>1.003 (-0.053%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.003 (0.26%)</t>
+          <t>0.002 (0.24%)</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.959</t>
+          <t>0.962</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -10366,42 +10366,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.961 (0.208%)</t>
+          <t>0.961 (-0.083%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.960 (0.021%)</t>
+          <t>0.963 (0.125%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.960 (0.021%)</t>
+          <t>0.962 (-0.021%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.959 (-0.010%)</t>
+          <t>0.962 (-0.010%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.959 (-0.010%)</t>
+          <t>0.962 (-0.021%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.959 (-0.042%)</t>
+          <t>0.962 (-0.031%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.959 (0.010%)</t>
+          <t>0.962 (0.010%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>0.002 (0.16%)</t>
         </is>
       </c>
     </row>
@@ -12352,52 +12352,52 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.961</t>
+          <t>0.965</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.006 (0.575%)</t>
+          <t>0.005 (0.528%)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.960 (-0.154%)</t>
+          <t>0.960 (-0.542%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.962 (0.077%)</t>
+          <t>0.966 (0.123%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.960 (-0.097%)</t>
+          <t>0.963 (-0.162%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.961 (-0.000%)</t>
+          <t>0.965 (-0.011%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.961 (-0.044%)</t>
+          <t>0.964 (-0.065%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.961 (-0.023%)</t>
+          <t>0.965 (-0.033%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.962 (0.076%)</t>
+          <t>0.966 (0.076%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.006 (0.61%)</t>
+          <t>0.008 (0.79%)</t>
         </is>
       </c>
     </row>
@@ -14348,52 +14348,52 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.958</t>
+          <t>0.960</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.004 (0.386%)</t>
+          <t>0.004 (0.365%)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.960 (0.167%)</t>
+          <t>0.960 (-0.073%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.960 (0.209%)</t>
+          <t>0.963 (0.260%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.960 (0.230%)</t>
+          <t>0.960 (0.021%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.958 (0.031%)</t>
+          <t>0.960 (0.021%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.956 (-0.157%)</t>
+          <t>0.959 (-0.156%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.957 (-0.063%)</t>
+          <t>0.960 (-0.062%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.957 (-0.084%)</t>
+          <t>0.959 (-0.083%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.005 (0.56%)</t>
+          <t>0.005 (0.49%)</t>
         </is>
       </c>
     </row>
@@ -16344,7 +16344,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.966</t>
+          <t>0.968</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -16354,42 +16354,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.968 (0.176%)</t>
+          <t>0.968 (-0.010%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.966 (-0.031%)</t>
+          <t>0.969 (0.031%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.967 (0.052%)</t>
+          <t>0.968 (0.021%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.967 (0.021%)</t>
+          <t>0.968 (0.010%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.965 (-0.103%)</t>
+          <t>0.967 (-0.103%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.967 (0.041%)</t>
+          <t>0.969 (0.041%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.967 (0.021%)</t>
+          <t>0.968 (0.010%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>0.001 (0.12%)</t>
         </is>
       </c>
     </row>
@@ -18340,32 +18340,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.991</t>
+          <t>0.992</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.004 (0.386%)</t>
+          <t>0.004 (0.365%)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.991 (-0.009%)</t>
+          <t>0.991 (-0.063%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.994 (0.240%)</t>
+          <t>0.994 (0.229%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.993 (0.178%)</t>
+          <t>0.992 (0.000%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.991 (0.011%)</t>
+          <t>0.992 (0.010%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -18375,17 +18375,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.990 (-0.104%)</t>
+          <t>0.991 (-0.104%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.990 (-0.104%)</t>
+          <t>0.991 (-0.094%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.005 (0.51%)</t>
+          <t>0.005 (0.46%)</t>
         </is>
       </c>
     </row>
@@ -20336,52 +20336,52 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.915</t>
+          <t>0.919</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.003 (0.350%)</t>
+          <t>0.003 (0.326%)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.918 (0.415%)</t>
+          <t>0.918 (-0.109%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.912 (-0.295%)</t>
+          <t>0.919 (-0.054%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.916 (0.120%)</t>
+          <t>0.920 (0.022%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.914 (-0.022%)</t>
+          <t>0.919 (-0.022%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.913 (-0.142%)</t>
+          <t>0.919 (-0.087%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.915 (0.000%)</t>
+          <t>0.919 (0.000%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.914 (-0.044%)</t>
+          <t>0.919 (-0.033%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.006 (0.65%)</t>
+          <t>0.003 (0.36%)</t>
         </is>
       </c>
     </row>
@@ -22332,7 +22332,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0.907</t>
+          <t>0.911</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -22342,42 +22342,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.911 (0.375%)</t>
+          <t>0.911 (-0.033%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.906 (-0.187%)</t>
+          <t>0.911 (-0.033%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.908 (0.033%)</t>
+          <t>0.911 (-0.044%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.907 (-0.011%)</t>
+          <t>0.911 (-0.022%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.906 (-0.143%)</t>
+          <t>0.910 (-0.110%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.907 (0.000%)</t>
+          <t>0.911 (0.000%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.907 (0.022%)</t>
+          <t>0.911 (0.011%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.004 (0.44%)</t>
+          <t>0.001 (0.13%)</t>
         </is>
       </c>
     </row>
@@ -24328,52 +24328,52 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1.008</t>
+          <t>1.009</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.004 (0.350%)</t>
+          <t>0.003 (0.326%)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.009 (0.041%)</t>
+          <t>1.009 (-0.076%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.007 (-0.108%)</t>
+          <t>1.009 (-0.021%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.009 (0.087%)</t>
+          <t>1.010 (0.066%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1.008 (-0.011%)</t>
+          <t>1.009 (0.000%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>1.008 (0.001%)</t>
+          <t>1.010 (0.023%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>1.008 (0.000%)</t>
+          <t>1.009 (0.000%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1.007 (-0.066%)</t>
+          <t>1.009 (-0.044%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.004 (0.38%)</t>
+          <t>0.003 (0.35%)</t>
         </is>
       </c>
     </row>

--- a/EfficiencyStudy/results/powhegMiNNLO/report_Mu8Leg2_systematics.xlsx
+++ b/EfficiencyStudy/results/powhegMiNNLO/report_Mu8Leg2_systematics.xlsx
@@ -797,7 +797,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>0.001 (0.06%)</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>0.001 (0.12%)</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.002 (0.20%)</t>
+          <t>0.002 (0.19%)</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>0.001 (0.09%)</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>0.002 (0.18%)</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.003 (0.28%)</t>
+          <t>0.003 (0.27%)</t>
         </is>
       </c>
     </row>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.002 (0.16%)</t>
+          <t>0.001 (0.15%)</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.008 (0.89%)</t>
+          <t>0.008 (0.86%)</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>0.001 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>0.002 (0.17%)</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>0.001 (0.15%)</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>0.001 (0.07%)</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>0.001 (0.14%)</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.002 (0.21%)</t>
+          <t>0.002 (0.18%)</t>
         </is>
       </c>
     </row>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>0.001 (0.06%)</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.002 (0.25%)</t>
+          <t>0.002 (0.24%)</t>
         </is>
       </c>
     </row>
@@ -4514,42 +4514,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.954 (0.000%)</t>
+          <t>0.954 (100.000%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>0.954 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.954 (0.021%)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.955 (100.042%)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.954 (-0.073%)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.954 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>0.954 (-0.010%)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.954 (0.010%)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.955 (0.042%)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.954 (-0.031%)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.954 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.954 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.909 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -4574,42 +4574,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.957 (-0.042%)</t>
+          <t>0.957 (99.958%)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.957 (-0.031%)</t>
+          <t>0.957 (99.969%)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.957 (-0.042%)</t>
+          <t>0.957 (-0.010%)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.957 (-0.042%)</t>
+          <t>0.957 (99.958%)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.957 (-0.031%)</t>
+          <t>0.957 (0.010%)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.957 (-0.010%)</t>
+          <t>0.957 (99.990%)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.957 (0.000%)</t>
+          <t>0.957 (0.010%)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>1.914 (199.94%)</t>
         </is>
       </c>
     </row>
@@ -4634,42 +4634,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>0.958 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.958 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.958 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>0.958 (-0.010%)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.958 (0.021%)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.958 (-0.010%)</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.958 (-0.010%)</t>
+          <t>0.958 (99.990%)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.958 (0.000%)</t>
+          <t>0.958 (0.010%)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.915 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -4694,42 +4694,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>0.958 (0.000%)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>0.958 (0.000%)</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>0.958 (0.000%)</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.000 (0.00%)</t>
+          <t>1.916 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -4754,42 +4754,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>0.958 (0.000%)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>0.958 (0.000%)</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>0.958 (0.000%)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.000 (0.00%)</t>
+          <t>1.916 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -4814,42 +4814,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>0.957 (0.000%)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>0.957 (0.000%)</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>0.957 (0.000%)</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.957 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.957 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0.957 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0.957 (0.000%)</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.00%)</t>
+          <t>1.913 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -4874,42 +4874,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>0.955 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.955 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>0.955 (0.000%)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.955 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.955 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.955 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>0.955 (0.000%)</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.955 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.955 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.955 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0.955 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0.955 (0.000%)</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.910 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -4934,32 +4934,32 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>0.949 (99.989%)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.949 (100.011%)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>0.949 (-0.011%)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.949 (0.011%)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.949 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>0.949 (0.000%)</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.949 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.949 (0.000%)</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.949 (0.000%)</t>
+          <t>0.949 (100.000%)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.898 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -4994,32 +4994,32 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.979 (-0.031%)</t>
+          <t>0.979 (99.969%)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.979 (-0.020%)</t>
+          <t>0.979 (99.980%)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.979 (0.000%)</t>
+          <t>0.979 (0.020%)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.979 (-0.020%)</t>
+          <t>0.979 (99.980%)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.979 (0.000%)</t>
+          <t>0.979 (0.020%)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.979 (0.000%)</t>
+          <t>0.979 (100.000%)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -5029,7 +5029,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.958 (199.96%)</t>
         </is>
       </c>
     </row>
@@ -5054,42 +5054,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.981 (-0.020%)</t>
+          <t>0.981 (99.980%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.981 (-0.010%)</t>
+          <t>0.981 (99.990%)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.982 (0.000%)</t>
+          <t>0.982 (0.010%)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.981 (-0.010%)</t>
+          <t>0.981 (99.990%)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>0.982 (0.020%)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.981 (99.990%)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
           <t>0.982 (0.010%)</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0.981 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0.982 (0.000%)</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.963 (199.97%)</t>
         </is>
       </c>
     </row>
@@ -5114,42 +5114,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>0.982 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.982 (99.980%)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.982 (0.000%)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.982 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.982 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.982 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>0.982 (-0.010%)</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.982 (-0.020%)</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.982 (-0.020%)</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0.982 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.982 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0.982 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0.982 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.963 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -5174,42 +5174,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>0.982 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.982 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.982 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.982 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>0.982 (0.000%)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.982 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.982 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>0.982 (0.000%)</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.982 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.982 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0.982 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0.982 (0.010%)</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.964 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -5234,42 +5234,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>0.982 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.982 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>0.982 (0.000%)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.982 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.982 (0.000%)</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.982 (-0.010%)</t>
+          <t>0.982 (99.990%)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.982 (0.000%)</t>
+          <t>0.982 (0.010%)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.982 (-0.010%)</t>
+          <t>0.982 (99.990%)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.982 (0.000%)</t>
+          <t>0.982 (0.010%)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.963 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -5294,42 +5294,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>0.981 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.981 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>0.981 (-0.010%)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.981 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>0.981 (0.000%)</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.981 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>0.981 (-0.010%)</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0.981 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.981 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0.981 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0.981 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.963 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -5354,42 +5354,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>0.980 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.980 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.980 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.980 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>0.980 (0.000%)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.980 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0.980 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>0.980 (0.010%)</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.980 (0.010%)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.980 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0.980 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0.980 (0.010%)</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.960 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -5414,42 +5414,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>0.975 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.975 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.975 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.975 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>0.975 (0.000%)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0.975 (99.990%)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>0.975 (0.010%)</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.975 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0.975 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.975 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0.975 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0.975 (0.000%)</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.950 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -5474,12 +5474,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.965 (-0.010%)</t>
+          <t>0.965 (99.990%)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.965 (0.000%)</t>
+          <t>0.965 (100.000%)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -5489,27 +5489,27 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.965 (-0.010%)</t>
+          <t>0.965 (99.990%)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.965 (0.000%)</t>
+          <t>0.965 (0.010%)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.965 (-0.031%)</t>
+          <t>0.965 (99.969%)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.965 (-0.010%)</t>
+          <t>0.965 (0.021%)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.930 (199.97%)</t>
         </is>
       </c>
     </row>
@@ -5534,12 +5534,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.968 (0.031%)</t>
+          <t>0.968 (100.031%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.967 (0.000%)</t>
+          <t>0.967 (100.000%)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.967 (0.000%)</t>
+          <t>0.967 (100.000%)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -5559,7 +5559,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.967 (0.000%)</t>
+          <t>0.967 (100.000%)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.935 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -5594,12 +5594,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.969 (0.000%)</t>
+          <t>0.969 (100.000%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.969 (0.000%)</t>
+          <t>0.969 (100.000%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.969 (0.000%)</t>
+          <t>0.969 (100.000%)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.969 (0.000%)</t>
+          <t>0.969 (100.000%)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.937 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -5654,42 +5654,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>0.969 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.969 (100.031%)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.969 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.969 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>0.969 (-0.010%)</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.969 (0.031%)</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.969 (0.010%)</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0.969 (0.010%)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.938 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -5714,42 +5714,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>0.970 (100.010%)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.970 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.970 (0.000%)</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>0.970 (0.010%)</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.970 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.970 (0.010%)</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>0.970 (0.000%)</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.970 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.940 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -5774,42 +5774,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>0.971 (0.000%)</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>0.971 (0.000%)</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>0.971 (0.000%)</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0.971 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.971 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>0.971 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0.971 (0.000%)</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.000 (0.00%)</t>
+          <t>1.942 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -5834,42 +5834,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.971 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>0.971 (0.000%)</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.971 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.971 (-0.010%)</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>0.971 (0.000%)</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>0.971 (0.000%)</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>0.971 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0.971 (0.000%)</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.942 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -5894,12 +5894,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.971 (0.000%)</t>
+          <t>0.971 (100.000%)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.971 (0.000%)</t>
+          <t>0.971 (100.000%)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -5909,7 +5909,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.971 (0.000%)</t>
+          <t>0.971 (100.000%)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -5919,17 +5919,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.971 (0.010%)</t>
+          <t>0.971 (100.010%)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.971 (0.000%)</t>
+          <t>0.971 (-0.010%)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.941 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -5954,42 +5954,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.923 (-0.054%)</t>
+          <t>0.923 (99.946%)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.923 (0.032%)</t>
+          <t>0.923 (100.032%)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.923 (0.022%)</t>
+          <t>0.923 (-0.011%)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.923 (-0.043%)</t>
+          <t>0.923 (99.957%)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.924 (0.097%)</t>
+          <t>0.924 (0.141%)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.923 (-0.054%)</t>
+          <t>0.923 (99.946%)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.923 (-0.011%)</t>
+          <t>0.923 (0.043%)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>1.846 (199.94%)</t>
         </is>
       </c>
     </row>
@@ -6014,42 +6014,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>0.930 (99.979%)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.930 (100.011%)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.930 (-0.032%)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.930 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.930 (0.000%)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0.931 (100.032%)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
           <t>0.930 (-0.021%)</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.930 (0.011%)</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.930 (-0.021%)</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0.930 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.930 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>0.931 (0.032%)</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0.930 (0.011%)</t>
-        </is>
-      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.861 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -6074,32 +6074,32 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.933 (-0.011%)</t>
+          <t>0.933 (99.989%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.934 (0.064%)</t>
+          <t>0.934 (100.064%)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.933 (0.032%)</t>
+          <t>0.933 (-0.032%)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>0.933 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>0.933 (0.000%)</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0.933 (0.000%)</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.933 (0.000%)</t>
+          <t>0.933 (100.000%)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.867 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -6134,32 +6134,32 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>0.935 (99.947%)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.936 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>0.935 (-0.053%)</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.936 (0.021%)</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.935 (-0.032%)</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
+          <t>0.935 (99.989%)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>0.935 (-0.011%)</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0.935 (-0.021%)</t>
-        </is>
-      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.935 (0.000%)</t>
+          <t>0.935 (100.000%)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.871 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -6194,42 +6194,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.935 (0.011%)</t>
+          <t>0.935 (100.011%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.935 (0.053%)</t>
+          <t>0.935 (100.053%)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.935 (0.032%)</t>
+          <t>0.935 (-0.021%)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.935 (0.011%)</t>
+          <t>0.935 (100.011%)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.936 (0.075%)</t>
+          <t>0.936 (0.064%)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.936 (0.064%)</t>
+          <t>0.936 (100.064%)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.935 (0.032%)</t>
+          <t>0.935 (-0.032%)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>1.871 (200.07%)</t>
         </is>
       </c>
     </row>
@@ -6254,42 +6254,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>0.935 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.935 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>0.935 (0.000%)</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.935 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>0.935 (0.000%)</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.935 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>0.935 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0.935 (0.000%)</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.935 (0.011%)</t>
+          <t>0.935 (100.011%)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.935 (0.000%)</t>
+          <t>0.935 (-0.011%)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.870 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -6314,42 +6314,42 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>0.934 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.934 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.934 (-0.011%)</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.934 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0.934 (0.011%)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0.934 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
           <t>0.934 (0.000%)</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.934 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.934 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>0.934 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0.934 (0.011%)</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>0.934 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0.934 (0.000%)</t>
-        </is>
-      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.869 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -6374,42 +6374,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>0.932 (99.989%)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.932 (99.989%)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.932 (0.043%)</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.932 (100.011%)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>0.932 (-0.011%)</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.932 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.932 (0.032%)</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>0.932 (0.011%)</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0.932 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>0.932 (0.000%)</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>0.932 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0.932 (0.000%)</t>
-        </is>
-      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.864 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -6605,7 +6605,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -6785,7 +6785,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -6965,7 +6965,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.002 (0.17%)</t>
+          <t>0.002 (0.16%)</t>
         </is>
       </c>
     </row>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>0.002 (0.16%)</t>
         </is>
       </c>
     </row>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.002 (0.21%)</t>
+          <t>0.002 (0.17%)</t>
         </is>
       </c>
     </row>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>0.001 (0.07%)</t>
         </is>
       </c>
     </row>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.002 (0.21%)</t>
+          <t>0.002 (0.20%)</t>
         </is>
       </c>
     </row>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.002 (0.23%)</t>
+          <t>0.002 (0.21%)</t>
         </is>
       </c>
     </row>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -8225,7 +8225,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.002 (0.21%)</t>
+          <t>0.002 (0.15%)</t>
         </is>
       </c>
     </row>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -8506,42 +8506,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.957 (100.042%)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>0.957 (0.000%)</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.957 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>0.957 (0.042%)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.957 (0.042%)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.957 (0.010%)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.957 (0.052%)</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>0.957 (0.000%)</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.957 (0.000%)</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>1.914 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -8566,42 +8566,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.962 (0.000%)</t>
+          <t>0.962 (100.000%)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.962 (-0.021%)</t>
+          <t>0.962 (99.979%)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
+          <t>0.962 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.962 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.962 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.962 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>0.962 (-0.010%)</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.962 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.962 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.962 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.962 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.923 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -8626,22 +8626,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.964 (0.000%)</t>
+          <t>0.964 (100.000%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.963 (-0.042%)</t>
+          <t>0.963 (99.958%)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.963 (-0.010%)</t>
+          <t>0.963 (0.031%)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.964 (0.000%)</t>
+          <t>0.964 (100.000%)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -8651,17 +8651,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.964 (0.010%)</t>
+          <t>0.964 (100.010%)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.963 (-0.010%)</t>
+          <t>0.963 (-0.021%)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>1.927 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -8686,42 +8686,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>0.964 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.964 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.964 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.964 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.964 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.964 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>0.964 (0.000%)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.964 (0.021%)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.964 (0.031%)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.964 (0.010%)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.964 (0.021%)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.964 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.964 (0.010%)</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.927 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -8746,42 +8746,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>0.963 (100.010%)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.963 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.963 (0.000%)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.963 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>0.963 (0.010%)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.963 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.963 (0.010%)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.963 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>0.963 (0.000%)</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.963 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.963 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0.963 (0.010%)</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.927 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -8806,22 +8806,22 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.962 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.962 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>0.962 (0.000%)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.962 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.962 (0.000%)</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.962 (0.000%)</t>
+          <t>0.962 (100.000%)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -8831,7 +8831,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.962 (0.000%)</t>
+          <t>0.962 (100.000%)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.924 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -8866,42 +8866,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>0.961 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.961 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.961 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.961 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.961 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.961 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>0.961 (0.000%)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.961 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.961 (0.010%)</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.961 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.961 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0.961 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0.961 (0.000%)</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.922 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -8926,42 +8926,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.957 (0.021%)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.957 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>0.957 (0.000%)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.957 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.957 (0.021%)</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.957 (0.010%)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.957 (0.010%)</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.957 (0.010%)</t>
+          <t>0.957 (100.010%)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.957 (-0.010%)</t>
+          <t>0.957 (-0.021%)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.914 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -8986,42 +8986,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>0.984 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.984 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>0.984 (-0.010%)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.984 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.984 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>0.984 (-0.010%)</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.984 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.984 (-0.020%)</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.983 (-0.030%)</t>
+          <t>0.983 (99.970%)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.984 (-0.010%)</t>
+          <t>0.984 (0.020%)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.967 (199.97%)</t>
         </is>
       </c>
     </row>
@@ -9046,12 +9046,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.988 (0.000%)</t>
+          <t>0.988 (100.000%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.988 (0.000%)</t>
+          <t>0.988 (100.000%)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.988 (0.000%)</t>
+          <t>0.988 (100.000%)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -9071,17 +9071,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.988 (0.010%)</t>
+          <t>0.988 (100.010%)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.987 (-0.010%)</t>
+          <t>0.987 (-0.020%)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.975 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -9106,42 +9106,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.988 (-0.020%)</t>
+          <t>0.988 (99.980%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.988 (-0.020%)</t>
+          <t>0.988 (99.980%)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.988 (-0.030%)</t>
+          <t>0.988 (-0.010%)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.988 (-0.010%)</t>
+          <t>0.988 (99.990%)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>0.988 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.988 (99.990%)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0.988 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0.988 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.977 (199.97%)</t>
         </is>
       </c>
     </row>
@@ -9166,42 +9166,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.988 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.988 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.988 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.976 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -9226,42 +9226,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.000 (0.00%)</t>
+          <t>1.976 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -9286,42 +9286,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.000 (0.00%)</t>
+          <t>1.976 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -9346,42 +9346,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.988 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.988 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.988 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.988 (0.010%)</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.988 (0.010%)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.976 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -9406,22 +9406,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.988 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.988 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.988 (-0.010%)</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.988 (0.000%)</t>
+          <t>0.988 (100.000%)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -9431,17 +9431,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.988 (-0.030%)</t>
+          <t>0.988 (99.970%)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.988 (-0.010%)</t>
+          <t>0.988 (0.020%)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.975 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -9466,42 +9466,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.963 (0.021%)</t>
+          <t>0.963 (100.021%)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.963 (0.021%)</t>
+          <t>0.963 (100.021%)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.963 (-0.010%)</t>
+          <t>0.963 (-0.031%)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.963 (0.021%)</t>
+          <t>0.963 (100.021%)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.963 (0.021%)</t>
+          <t>0.963 (0.000%)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.963 (0.021%)</t>
+          <t>0.963 (100.021%)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.963 (0.021%)</t>
+          <t>0.963 (0.000%)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.926 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -9526,42 +9526,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.966 (0.021%)</t>
+          <t>0.966 (100.021%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.966 (0.021%)</t>
+          <t>0.966 (100.021%)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.966 (0.031%)</t>
+          <t>0.966 (0.010%)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.966 (0.031%)</t>
+          <t>0.966 (100.031%)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.966 (0.031%)</t>
+          <t>0.966 (0.000%)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.966 (0.031%)</t>
+          <t>0.966 (100.031%)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.965 (0.000%)</t>
+          <t>0.965 (-0.031%)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.931 (200.05%)</t>
         </is>
       </c>
     </row>
@@ -9586,42 +9586,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.966 (0.000%)</t>
+          <t>0.966 (100.000%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>0.966 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.966 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>0.966 (-0.031%)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0.966 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>0.966 (-0.010%)</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.966 (-0.031%)</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0.966 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.933 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -9646,22 +9646,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.967 (0.010%)</t>
+          <t>0.967 (100.010%)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.967 (-0.021%)</t>
+          <t>0.967 (99.979%)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.967 (0.010%)</t>
+          <t>0.967 (0.031%)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.967 (0.000%)</t>
+          <t>0.967 (100.000%)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -9671,17 +9671,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.967 (0.031%)</t>
+          <t>0.967 (100.031%)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.967 (0.021%)</t>
+          <t>0.967 (-0.010%)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.934 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -9706,42 +9706,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.968 (0.021%)</t>
+          <t>0.968 (100.021%)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.968 (0.021%)</t>
+          <t>0.968 (100.021%)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.968 (0.021%)</t>
+          <t>0.968 (0.000%)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.968 (0.021%)</t>
+          <t>0.968 (100.021%)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.968 (0.031%)</t>
+          <t>0.968 (0.010%)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
+          <t>0.968 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>0.968 (0.010%)</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0.968 (0.021%)</t>
-        </is>
-      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.936 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -9766,42 +9766,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.969 (0.010%)</t>
+          <t>0.969 (100.010%)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.969 (0.000%)</t>
+          <t>0.969 (-0.010%)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.937 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -9826,42 +9826,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.969 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.969 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.969 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.969 (0.010%)</t>
+          <t>0.969 (100.010%)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.969 (0.000%)</t>
+          <t>0.969 (-0.010%)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.938 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -9886,22 +9886,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.970 (0.000%)</t>
+          <t>0.970 (100.000%)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>0.969 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>0.969 (-0.010%)</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.969 (-0.021%)</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.970 (0.000%)</t>
+          <t>0.970 (100.000%)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -9911,17 +9911,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.969 (-0.010%)</t>
+          <t>0.969 (99.990%)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.969 (-0.010%)</t>
+          <t>0.969 (0.000%)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.939 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -9946,42 +9946,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>0.948 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.948 (99.979%)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>0.948 (0.000%)</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.948 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0.947 (-0.095%)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>0.948 (100.011%)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>0.948 (-0.021%)</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.948 (-0.021%)</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0.948 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.947 (-0.095%)</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>0.948 (0.011%)</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0.948 (-0.011%)</t>
-        </is>
-      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>1.896 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -10006,22 +10006,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.953 (-0.073%)</t>
+          <t>0.953 (99.927%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.954 (0.010%)</t>
+          <t>0.954 (100.010%)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.953 (-0.094%)</t>
+          <t>0.953 (-0.105%)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.954 (0.000%)</t>
+          <t>0.954 (100.000%)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -10031,17 +10031,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.954 (0.010%)</t>
+          <t>0.954 (100.010%)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.954 (-0.010%)</t>
+          <t>0.954 (-0.021%)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>1.907 (199.97%)</t>
         </is>
       </c>
     </row>
@@ -10066,42 +10066,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>0.956 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.957 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.957 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0.956 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0.957 (0.031%)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0.956 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>0.956 (-0.010%)</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.957 (0.021%)</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.957 (0.031%)</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>0.956 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>0.957 (0.031%)</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>0.956 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0.956 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.913 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -10126,42 +10126,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.958 (0.021%)</t>
+          <t>0.958 (100.021%)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.958 (0.042%)</t>
+          <t>0.958 (100.042%)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.958 (0.010%)</t>
+          <t>0.958 (-0.031%)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.958 (0.010%)</t>
+          <t>0.958 (100.010%)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.958 (0.010%)</t>
+          <t>0.958 (0.000%)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
           <t>0.958 (0.000%)</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.916 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -10186,42 +10186,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.958 (-0.042%)</t>
+          <t>0.958 (99.958%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>0.958 (99.979%)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.958 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.958 (0.000%)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0.958 (99.990%)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
           <t>0.958 (-0.021%)</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.958 (-0.031%)</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>0.958 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0.958 (-0.031%)</t>
-        </is>
-      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.916 (199.96%)</t>
         </is>
       </c>
     </row>
@@ -10246,42 +10246,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>0.959 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.959 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.959 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.959 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>0.959 (0.000%)</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.959 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.959 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>0.959 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0.959 (0.000%)</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.959 (0.010%)</t>
+          <t>0.959 (100.010%)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.959 (-0.010%)</t>
+          <t>0.959 (-0.021%)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.919 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -10306,42 +10306,42 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.959 (0.010%)</t>
+          <t>0.959 (100.010%)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.959 (0.021%)</t>
+          <t>0.959 (100.021%)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.958 (-0.010%)</t>
+          <t>0.958 (-0.031%)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>0.958 (0.000%)</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.959 (0.010%)</t>
+          <t>0.959 (100.010%)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.958 (-0.010%)</t>
+          <t>0.958 (-0.021%)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.917 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -10366,42 +10366,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.961 (-0.083%)</t>
+          <t>0.961 (99.917%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.963 (0.125%)</t>
+          <t>0.963 (100.125%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.962 (-0.021%)</t>
+          <t>0.962 (-0.146%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>0.962 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>0.962 (-0.010%)</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0.962 (-0.021%)</t>
-        </is>
-      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.962 (-0.031%)</t>
+          <t>0.962 (99.969%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.962 (0.010%)</t>
+          <t>0.962 (0.042%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.002 (0.16%)</t>
+          <t>1.924 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -10537,7 +10537,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.002 (0.16%)</t>
+          <t>0.001 (0.15%)</t>
         </is>
       </c>
     </row>
@@ -10657,7 +10657,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>0.001 (0.13%)</t>
         </is>
       </c>
     </row>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.07%)</t>
         </is>
       </c>
     </row>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.002 (0.16%)</t>
+          <t>0.001 (0.16%)</t>
         </is>
       </c>
     </row>
@@ -11077,7 +11077,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>0.001 (0.12%)</t>
         </is>
       </c>
     </row>
@@ -11137,7 +11137,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.002 (0.16%)</t>
+          <t>0.001 (0.15%)</t>
         </is>
       </c>
     </row>
@@ -11377,7 +11377,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -11497,7 +11497,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -11557,7 +11557,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.002 (0.20%)</t>
+          <t>0.002 (0.18%)</t>
         </is>
       </c>
     </row>
@@ -11677,7 +11677,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>0.001 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>0.000 (0.01%)</t>
         </is>
       </c>
     </row>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.003 (0.26%)</t>
+          <t>0.002 (0.25%)</t>
         </is>
       </c>
     </row>
@@ -11977,7 +11977,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.003 (0.33%)</t>
+          <t>0.003 (0.32%)</t>
         </is>
       </c>
     </row>
@@ -12037,7 +12037,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.002 (0.23%)</t>
+          <t>0.002 (0.22%)</t>
         </is>
       </c>
     </row>
@@ -12097,7 +12097,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>0.001 (0.13%)</t>
         </is>
       </c>
     </row>
@@ -12337,7 +12337,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>0.001 (0.09%)</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12397,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.008 (0.79%)</t>
+          <t>0.008 (0.78%)</t>
         </is>
       </c>
     </row>
@@ -12593,7 +12593,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -12773,7 +12773,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -13073,7 +13073,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>0.001 (0.11%)</t>
         </is>
       </c>
     </row>
@@ -13133,7 +13133,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.07%)</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.002 (0.17%)</t>
+          <t>0.001 (0.15%)</t>
         </is>
       </c>
     </row>
@@ -14153,7 +14153,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -14213,7 +14213,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>0.001 (0.07%)</t>
         </is>
       </c>
     </row>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -14494,12 +14494,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.963 (0.000%)</t>
+          <t>0.963 (100.000%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.963 (0.000%)</t>
+          <t>0.963 (100.000%)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -14509,27 +14509,27 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.963 (0.010%)</t>
+          <t>0.963 (100.010%)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.963 (-0.031%)</t>
+          <t>0.963 (-0.042%)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.963 (-0.010%)</t>
+          <t>0.963 (99.990%)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.963 (0.010%)</t>
+          <t>0.963 (0.021%)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>1.926 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -14554,22 +14554,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.965 (99.969%)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>0.965 (0.000%)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.965 (-0.031%)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.965 (-0.031%)</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.965 (0.000%)</t>
+          <t>0.965 (100.000%)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -14579,7 +14579,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.965 (0.000%)</t>
+          <t>0.965 (100.000%)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -14589,7 +14589,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.931 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -14614,42 +14614,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.966 (100.031%)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.966 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>0.966 (0.000%)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.966 (0.031%)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.966 (0.010%)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.966 (0.010%)</t>
+          <t>0.966 (100.010%)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.966 (0.000%)</t>
+          <t>0.966 (-0.010%)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.931 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -14674,42 +14674,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>0.967 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.967 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>0.967 (0.000%)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.967 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.967 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.967 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>0.967 (0.000%)</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.967 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.967 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.967 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.967 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.967 (0.000%)</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.933 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -14734,42 +14734,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.966 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.966 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>0.966 (0.000%)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.966 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.966 (-0.010%)</t>
+          <t>0.966 (99.990%)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.966 (0.000%)</t>
+          <t>0.966 (0.010%)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.932 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -14794,42 +14794,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>0.965 (0.000%)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>0.965 (0.000%)</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>0.965 (0.000%)</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.00%)</t>
+          <t>1.930 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -14854,42 +14854,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.964 (-0.010%)</t>
+          <t>0.964 (99.990%)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>0.964 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>0.964 (0.000%)</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.964 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>0.964 (0.000%)</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.964 (99.990%)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>0.964 (0.000%)</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.964 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0.964 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0.964 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.928 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -14914,12 +14914,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.960 (0.000%)</t>
+          <t>0.960 (100.000%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.960 (0.000%)</t>
+          <t>0.960 (100.000%)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -14929,27 +14929,27 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>0.960 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.961 (0.073%)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.960 (99.990%)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>0.960 (0.010%)</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.961 (0.083%)</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0.960 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0.960 (0.000%)</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>1.920 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -14974,42 +14974,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.988 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.988 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.988 (-0.010%)</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>0.988 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>0.988 (0.000%)</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.988 (0.000%)</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.988 (0.010%)</t>
+          <t>0.988 (100.010%)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.988 (-0.010%)</t>
+          <t>0.988 (-0.020%)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.976 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -15034,42 +15034,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.990 (-0.010%)</t>
+          <t>0.990 (99.990%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.990 (-0.010%)</t>
+          <t>0.990 (99.990%)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>0.990 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.990 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>0.990 (0.000%)</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.990 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.990 (-0.010%)</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.990 (-0.020%)</t>
+          <t>0.990 (99.980%)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.990 (-0.010%)</t>
+          <t>0.990 (0.010%)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.980 (199.97%)</t>
         </is>
       </c>
     </row>
@@ -15094,42 +15094,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.991 (0.010%)</t>
+          <t>0.991 (100.010%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.991 (0.010%)</t>
+          <t>0.991 (100.010%)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>0.991 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.991 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>0.991 (0.000%)</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0.991 (0.010%)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.991 (0.010%)</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.991 (0.020%)</t>
+          <t>0.991 (100.020%)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.991 (0.000%)</t>
+          <t>0.991 (-0.020%)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.982 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -15154,42 +15154,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>0.991 (0.000%)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.991 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>0.991 (0.000%)</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.991 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.982 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -15214,42 +15214,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>0.991 (0.000%)</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.991 (0.010%)</t>
+          <t>0.991 (100.010%)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.991 (0.000%)</t>
+          <t>0.991 (-0.010%)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.991 (0.010%)</t>
+          <t>0.991 (100.010%)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.991 (0.000%)</t>
+          <t>0.991 (-0.010%)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.982 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -15274,42 +15274,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>0.991 (0.000%)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>0.991 (0.000%)</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>0.991 (0.000%)</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.000 (0.00%)</t>
+          <t>1.982 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -15334,42 +15334,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.991 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>0.991 (0.000%)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.991 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.991 (0.000%)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0.991 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>0.991 (0.010%)</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.991 (0.010%)</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.991 (0.010%)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.991 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0.991 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0.991 (0.010%)</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.982 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -15394,12 +15394,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.989 (0.000%)</t>
+          <t>0.989 (100.000%)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.989 (0.000%)</t>
+          <t>0.989 (100.000%)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -15409,7 +15409,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.989 (0.000%)</t>
+          <t>0.989 (100.000%)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -15419,17 +15419,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
+          <t>0.989 (99.990%)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>0.989 (-0.010%)</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0.989 (-0.020%)</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.979 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -15454,22 +15454,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.965 (0.021%)</t>
+          <t>0.965 (100.021%)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.965 (0.021%)</t>
+          <t>0.965 (100.021%)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.965 (0.010%)</t>
+          <t>0.965 (-0.010%)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.965 (0.000%)</t>
+          <t>0.965 (100.000%)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -15479,17 +15479,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.964 (-0.010%)</t>
+          <t>0.964 (99.990%)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.965 (0.021%)</t>
+          <t>0.965 (0.031%)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.929 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -15514,42 +15514,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.967 (-0.021%)</t>
+          <t>0.967 (99.979%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>0.967 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>0.967 (-0.010%)</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.967 (-0.021%)</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.967 (-0.021%)</t>
+          <t>0.967 (99.979%)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.967 (-0.021%)</t>
+          <t>0.967 (0.000%)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.967 (-0.021%)</t>
+          <t>0.967 (99.979%)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.967 (-0.010%)</t>
+          <t>0.967 (0.010%)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.933 (199.96%)</t>
         </is>
       </c>
     </row>
@@ -15574,42 +15574,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.968 (0.010%)</t>
+          <t>0.968 (100.010%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.968 (0.021%)</t>
+          <t>0.968 (100.021%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.968 (0.010%)</t>
+          <t>0.968 (-0.010%)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.968 (0.010%)</t>
+          <t>0.968 (100.010%)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.968 (0.010%)</t>
+          <t>0.968 (0.000%)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.968 (0.010%)</t>
+          <t>0.968 (100.010%)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.968 (0.010%)</t>
+          <t>0.968 (0.000%)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.935 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -15634,42 +15634,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>0.968 (100.010%)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.968 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>0.968 (0.010%)</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.968 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.968 (0.000%)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.968 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>0.968 (-0.010%)</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0.968 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.936 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -15694,42 +15694,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.969 (-0.021%)</t>
+          <t>0.969 (99.979%)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.969 (-0.021%)</t>
+          <t>0.969 (99.979%)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.969 (-0.021%)</t>
+          <t>0.969 (0.000%)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.969 (-0.031%)</t>
+          <t>0.969 (99.969%)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.969 (-0.021%)</t>
+          <t>0.969 (0.010%)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.969 (-0.031%)</t>
+          <t>0.969 (99.969%)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.969 (-0.031%)</t>
+          <t>0.969 (0.000%)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.938 (199.95%)</t>
         </is>
       </c>
     </row>
@@ -15754,42 +15754,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>0.970 (0.000%)</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>0.970 (0.000%)</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>0.970 (0.000%)</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.000 (0.00%)</t>
+          <t>1.939 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -15814,42 +15814,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.970 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>0.970 (0.000%)</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.970 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.970 (0.010%)</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>0.970 (0.000%)</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>0.970 (0.000%)</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.940 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -15874,42 +15874,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.971 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.971 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.971 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0.971 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0.971 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>0.971 (0.000%)</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.971 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.971 (0.010%)</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0.971 (0.010%)</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.971 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>0.971 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0.971 (0.010%)</t>
-        </is>
-      </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.942 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -15934,42 +15934,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.956 (-0.021%)</t>
+          <t>0.956 (99.979%)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.956 (-0.052%)</t>
+          <t>0.956 (99.948%)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>0.956 (0.042%)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.957 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>0.956 (-0.010%)</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0.957 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.956 (-0.010%)</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.956 (-0.010%)</t>
+          <t>0.956 (99.990%)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.957 (0.010%)</t>
+          <t>0.957 (0.021%)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.913 (199.96%)</t>
         </is>
       </c>
     </row>
@@ -15994,42 +15994,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.962 (-0.052%)</t>
+          <t>0.962 (99.948%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.962 (-0.042%)</t>
+          <t>0.962 (99.958%)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.962 (-0.052%)</t>
+          <t>0.962 (-0.010%)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.962 (-0.010%)</t>
+          <t>0.962 (99.990%)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.962 (-0.042%)</t>
+          <t>0.962 (-0.031%)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.962 (-0.021%)</t>
+          <t>0.962 (99.979%)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.962 (-0.021%)</t>
+          <t>0.962 (0.000%)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>1.923 (199.94%)</t>
         </is>
       </c>
     </row>
@@ -16054,42 +16054,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.964 (0.021%)</t>
+          <t>0.964 (100.021%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.964 (0.010%)</t>
+          <t>0.964 (100.010%)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.963 (0.000%)</t>
+          <t>0.963 (-0.010%)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.964 (0.042%)</t>
+          <t>0.964 (100.042%)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.963 (-0.010%)</t>
+          <t>0.963 (-0.052%)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.964 (0.042%)</t>
+          <t>0.964 (100.042%)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.964 (0.021%)</t>
+          <t>0.964 (-0.021%)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.927 (200.06%)</t>
         </is>
       </c>
     </row>
@@ -16114,42 +16114,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.966 (0.000%)</t>
+          <t>0.966 (100.000%)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>0.966 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.966 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>0.966 (-0.031%)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
           <t>0.966 (-0.010%)</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.966 (-0.031%)</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>0.966 (-0.031%)</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0.966 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.932 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -16174,42 +16174,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>0.966 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>0.966 (-0.010%)</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>0.966 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.966 (-0.052%)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0.966 (100.021%)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>0.966 (-0.010%)</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0.966 (0.010%)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.966 (-0.041%)</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>0.966 (0.021%)</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0.966 (0.010%)</t>
-        </is>
-      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.932 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -16234,42 +16234,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.966 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>0.966 (0.000%)</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>0.966 (0.000%)</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.966 (0.010%)</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.932 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -16294,42 +16294,42 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.966 (-0.021%)</t>
+          <t>0.966 (99.979%)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.966 (-0.041%)</t>
+          <t>0.966 (99.959%)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>0.966 (0.041%)</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.966 (99.969%)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
           <t>0.966 (0.000%)</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>0.966 (-0.031%)</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0.966 (-0.031%)</t>
-        </is>
-      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.966 (-0.031%)</t>
+          <t>0.966 (99.969%)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.966 (-0.031%)</t>
+          <t>0.966 (0.000%)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>1.931 (199.94%)</t>
         </is>
       </c>
     </row>
@@ -16354,42 +16354,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>0.968 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.969 (100.031%)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>0.968 (-0.010%)</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.969 (0.031%)</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.968 (0.021%)</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.968 (0.010%)</t>
+          <t>0.968 (100.010%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.967 (-0.103%)</t>
+          <t>0.967 (-0.114%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.969 (0.041%)</t>
+          <t>0.969 (100.041%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.968 (0.010%)</t>
+          <t>0.968 (-0.031%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>1.937 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -16645,7 +16645,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>0.001 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -16945,7 +16945,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.002 (0.16%)</t>
+          <t>0.002 (0.15%)</t>
         </is>
       </c>
     </row>
@@ -17005,7 +17005,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -17065,7 +17065,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>0.001 (0.11%)</t>
         </is>
       </c>
     </row>
@@ -17245,7 +17245,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>0.000 (0.02%)</t>
         </is>
       </c>
     </row>
@@ -17485,7 +17485,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>0.001 (0.11%)</t>
         </is>
       </c>
     </row>
@@ -17845,7 +17845,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -17905,7 +17905,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.002 (0.17%)</t>
+          <t>0.001 (0.15%)</t>
         </is>
       </c>
     </row>
@@ -18025,7 +18025,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.002 (0.16%)</t>
+          <t>0.001 (0.15%)</t>
         </is>
       </c>
     </row>
@@ -18085,7 +18085,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>0.001 (0.11%)</t>
         </is>
       </c>
     </row>
@@ -18145,7 +18145,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>0.001 (0.07%)</t>
         </is>
       </c>
     </row>
@@ -18205,7 +18205,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -18265,7 +18265,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -18325,7 +18325,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>0.001 (0.09%)</t>
         </is>
       </c>
     </row>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.005 (0.46%)</t>
+          <t>0.004 (0.45%)</t>
         </is>
       </c>
     </row>
@@ -18701,7 +18701,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -18761,7 +18761,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>0.001 (0.06%)</t>
         </is>
       </c>
     </row>
@@ -19061,7 +19061,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.002 (0.24%)</t>
+          <t>0.002 (0.16%)</t>
         </is>
       </c>
     </row>
@@ -19121,7 +19121,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.002 (0.25%)</t>
+          <t>0.002 (0.19%)</t>
         </is>
       </c>
     </row>
@@ -19361,7 +19361,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -19541,7 +19541,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>0.001 (0.07%)</t>
         </is>
       </c>
     </row>
@@ -19661,7 +19661,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -19721,7 +19721,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>0.001 (0.09%)</t>
         </is>
       </c>
     </row>
@@ -19901,7 +19901,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>0.001 (0.11%)</t>
         </is>
       </c>
     </row>
@@ -19961,7 +19961,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.006 (0.65%)</t>
+          <t>0.005 (0.54%)</t>
         </is>
       </c>
     </row>
@@ -20141,7 +20141,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -20201,7 +20201,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.002 (0.17%)</t>
+          <t>0.001 (0.16%)</t>
         </is>
       </c>
     </row>
@@ -20482,42 +20482,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.950 (0.000%)</t>
+          <t>0.950 (100.000%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>0.950 (99.989%)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.950 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0.950 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.949 (-0.053%)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.950 (100.011%)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>0.950 (-0.011%)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.950 (-0.032%)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.950 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.949 (-0.053%)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.950 (0.011%)</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.950 (0.000%)</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.900 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -20542,42 +20542,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>0.953 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.953 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>0.953 (0.000%)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.953 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.953 (0.010%)</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>0.953 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.953 (0.042%)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.953 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>0.953 (0.000%)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.953 (0.042%)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.953 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.953 (0.000%)</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.906 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -20602,42 +20602,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>0.954 (99.969%)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.954 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>0.954 (-0.031%)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.954 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.954 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.954 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>0.954 (0.000%)</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.954 (-0.031%)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.954 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.954 (0.010%)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.954 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.954 (0.000%)</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.907 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -20662,42 +20662,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>0.954 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.953 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.954 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.954 (100.010%)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.954 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.954 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>0.954 (0.000%)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.953 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.954 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.954 (0.010%)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.954 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.954 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.954 (0.000%)</t>
-        </is>
-      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.907 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -20722,42 +20722,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.953 (0.010%)</t>
+          <t>0.953 (100.010%)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.953 (0.010%)</t>
+          <t>0.953 (100.010%)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>0.953 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.953 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>0.953 (0.000%)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.953 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>0.953 (0.000%)</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.953 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.953 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0.953 (0.000%)</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.906 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -20782,42 +20782,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.952 (99.989%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.952 (99.989%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.952 (0.011%)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.952 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>0.952 (-0.011%)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.952 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.952 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>0.952 (0.000%)</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.952 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.952 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0.952 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0.952 (0.000%)</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.904 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -20842,42 +20842,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>0.950 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.950 (99.989%)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.950 (0.011%)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.950 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>0.950 (0.000%)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.950 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>0.950 (-0.011%)</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.950 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.950 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.950 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0.950 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0.950 (-0.011%)</t>
-        </is>
-      </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.900 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -20902,42 +20902,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.944 (0.000%)</t>
+          <t>0.944 (100.000%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>0.944 (100.011%)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.944 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.944 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.943 (-0.032%)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.944 (99.989%)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>0.944 (0.011%)</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.944 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.944 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.943 (-0.032%)</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0.944 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0.944 (0.000%)</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.887 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -20962,42 +20962,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>0.950 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.950 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.950 (0.011%)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0.950 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>0.950 (0.000%)</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.950 (0.021%)</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.950 (0.032%)</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.950 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.950 (0.000%)</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.950 (0.011%)</t>
+          <t>0.950 (100.011%)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.950 (-0.021%)</t>
+          <t>0.950 (-0.032%)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.900 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -21022,42 +21022,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.956 (0.031%)</t>
+          <t>0.956 (100.031%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.957 (0.042%)</t>
+          <t>0.957 (100.042%)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.956 (0.031%)</t>
+          <t>0.956 (-0.010%)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.956 (0.031%)</t>
+          <t>0.956 (100.031%)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.957 (0.084%)</t>
+          <t>0.957 (0.052%)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.956 (0.021%)</t>
+          <t>0.956 (100.021%)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.956 (0.021%)</t>
+          <t>0.956 (0.000%)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>1.913 (200.06%)</t>
         </is>
       </c>
     </row>
@@ -21082,42 +21082,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.963 (-0.042%)</t>
+          <t>0.963 (99.958%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>0.963 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.963 (-0.031%)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0.963 (99.958%)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>0.963 (0.010%)</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.963 (-0.021%)</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0.963 (-0.042%)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.963 (-0.031%)</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.963 (-0.031%)</t>
+          <t>0.963 (99.969%)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.963 (-0.031%)</t>
+          <t>0.963 (0.000%)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>1.926 (199.95%)</t>
         </is>
       </c>
     </row>
@@ -21142,42 +21142,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.966 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.966 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>0.966 (0.000%)</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.966 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.966 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>0.966 (0.000%)</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0.966 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0.966 (0.010%)</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.932 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -21202,22 +21202,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.968 (0.010%)</t>
+          <t>0.968 (100.010%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.968 (0.021%)</t>
+          <t>0.968 (100.021%)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.968 (0.010%)</t>
+          <t>0.968 (-0.010%)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.968 (0.000%)</t>
+          <t>0.968 (100.000%)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -21227,17 +21227,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.968 (0.021%)</t>
+          <t>0.968 (100.021%)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.968 (0.010%)</t>
+          <t>0.968 (-0.010%)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.936 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -21262,42 +21262,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.000 (0.00%)</t>
+          <t>1.937 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -21322,42 +21322,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>0.968 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.968 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.968 (0.000%)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.968 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>0.968 (0.000%)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0.969 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>0.968 (-0.010%)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0.969 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0.968 (0.000%)</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.937 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -21382,42 +21382,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>0.964 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.964 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.964 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.964 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.965 (0.062%)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0.964 (99.979%)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>0.964 (0.000%)</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.964 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.964 (0.021%)</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0.964 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.965 (0.062%)</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0.964 (-0.021%)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0.964 (-0.021%)</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.928 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -21442,32 +21442,32 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.933 (0.086%)</t>
+          <t>0.933 (100.086%)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.932 (0.054%)</t>
+          <t>0.932 (100.054%)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.933 (0.075%)</t>
+          <t>0.933 (0.021%)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.932 (0.043%)</t>
+          <t>0.932 (100.043%)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.932 (0.043%)</t>
+          <t>0.932 (0.000%)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.932 (0.000%)</t>
+          <t>0.932 (100.000%)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -21477,7 +21477,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>1.865 (200.09%)</t>
         </is>
       </c>
     </row>
@@ -21502,12 +21502,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.932 (-0.021%)</t>
+          <t>0.932 (99.979%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.932 (0.000%)</t>
+          <t>0.932 (100.000%)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -21517,27 +21517,27 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.932 (-0.021%)</t>
+          <t>0.932 (99.979%)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.932 (0.000%)</t>
+          <t>0.932 (0.021%)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.933 (0.054%)</t>
+          <t>0.933 (100.054%)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.932 (-0.021%)</t>
+          <t>0.932 (-0.075%)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>1.865 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -21562,42 +21562,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>0.936 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.936 (99.989%)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>0.936 (0.000%)</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0.936 (99.979%)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>0.936 (-0.011%)</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0.937 (100.032%)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>0.936 (-0.011%)</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0.936 (-0.021%)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.936 (-0.032%)</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0.937 (0.032%)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0.936 (0.021%)</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.873 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -21622,42 +21622,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.937 (-0.032%)</t>
+          <t>0.937 (99.968%)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.937 (-0.021%)</t>
+          <t>0.937 (99.979%)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.937 (0.000%)</t>
+          <t>0.937 (0.021%)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>0.937 (99.989%)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0.937 (0.032%)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.937 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>0.937 (-0.011%)</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.937 (0.021%)</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0.937 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0.937 (-0.011%)</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.874 (199.97%)</t>
         </is>
       </c>
     </row>
@@ -21682,22 +21682,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>0.935 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.935 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>0.935 (0.000%)</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.935 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.935 (0.000%)</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.935 (0.000%)</t>
+          <t>0.935 (100.000%)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -21707,7 +21707,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.935 (0.000%)</t>
+          <t>0.935 (100.000%)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -21717,7 +21717,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.870 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -21742,42 +21742,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>0.940 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.940 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>0.940 (0.000%)</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.940 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>0.940 (0.000%)</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.940 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>0.940 (0.000%)</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0.940 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.940 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>0.940 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0.940 (0.000%)</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.000 (0.00%)</t>
+          <t>1.880 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -21802,42 +21802,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>0.946 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.946 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>0.946 (0.000%)</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>0.946 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>0.946 (0.000%)</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.946 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>0.946 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>0.946 (0.000%)</t>
-        </is>
-      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.947 (0.011%)</t>
+          <t>0.947 (100.011%)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.946 (0.000%)</t>
+          <t>0.946 (-0.011%)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.000 (0.01%)</t>
+          <t>1.893 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -21862,12 +21862,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.947 (-0.042%)</t>
+          <t>0.947 (99.958%)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.947 (0.000%)</t>
+          <t>0.947 (100.000%)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -21877,7 +21877,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.947 (0.000%)</t>
+          <t>0.947 (100.000%)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -21887,17 +21887,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.947 (-0.011%)</t>
+          <t>0.947 (99.989%)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.947 (0.000%)</t>
+          <t>0.947 (0.011%)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.895 (199.97%)</t>
         </is>
       </c>
     </row>
@@ -21922,42 +21922,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.904 (-0.011%)</t>
+          <t>0.904 (99.989%)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.903 (-0.100%)</t>
+          <t>0.903 (99.900%)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.903 (-0.022%)</t>
+          <t>0.903 (0.077%)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.904 (0.089%)</t>
+          <t>0.904 (100.089%)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.904 (-0.011%)</t>
+          <t>0.904 (-0.100%)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.904 (0.066%)</t>
+          <t>0.904 (100.066%)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.904 (-0.011%)</t>
+          <t>0.904 (-0.077%)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>1.808 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -21982,42 +21982,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.911 (0.000%)</t>
+          <t>0.911 (100.000%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>0.910 (99.923%)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.911 (0.066%)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.911 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>0.910 (-0.077%)</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.911 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0.911 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.910 (-0.077%)</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.911 (-0.022%)</t>
+          <t>0.911 (99.978%)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.911 (0.011%)</t>
+          <t>0.911 (0.033%)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>1.822 (199.95%)</t>
         </is>
       </c>
     </row>
@@ -22042,42 +22042,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>0.916 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.916 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>0.916 (0.000%)</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.916 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.916 (0.000%)</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.916 (0.055%)</t>
+          <t>0.916 (100.055%)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.916 (0.098%)</t>
+          <t>0.916 (0.044%)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.916 (0.076%)</t>
+          <t>0.916 (100.076%)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.916 (0.022%)</t>
+          <t>0.916 (-0.055%)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>1.832 (200.07%)</t>
         </is>
       </c>
     </row>
@@ -22102,42 +22102,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.917 (0.044%)</t>
+          <t>0.917 (100.044%)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.917 (0.044%)</t>
+          <t>0.917 (100.044%)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.917 (0.055%)</t>
+          <t>0.917 (0.011%)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.917 (0.055%)</t>
+          <t>0.917 (100.055%)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.917 (0.055%)</t>
+          <t>0.917 (0.000%)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.917 (0.055%)</t>
+          <t>0.917 (100.055%)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.916 (0.000%)</t>
+          <t>0.916 (-0.055%)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>1.834 (200.10%)</t>
         </is>
       </c>
     </row>
@@ -22162,42 +22162,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.917 (-0.076%)</t>
+          <t>0.917 (99.924%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.918 (-0.022%)</t>
+          <t>0.918 (99.978%)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.918 (-0.033%)</t>
+          <t>0.918 (-0.011%)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
+          <t>0.918 (99.989%)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>0.918 (0.000%)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>0.918 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
           <t>0.918 (-0.011%)</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>0.918 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>0.918 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0.918 (-0.011%)</t>
-        </is>
-      </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>1.836 (199.95%)</t>
         </is>
       </c>
     </row>
@@ -22222,42 +22222,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>0.917 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.917 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>0.917 (0.000%)</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.917 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>0.917 (0.000%)</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.917 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>0.917 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0.917 (0.000%)</t>
-        </is>
-      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.918 (0.011%)</t>
+          <t>0.918 (100.011%)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.917 (-0.011%)</t>
+          <t>0.917 (-0.022%)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.835 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -22282,42 +22282,42 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>0.916 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.916 (100.011%)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>0.916 (0.000%)</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0.916 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>0.916 (0.011%)</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>0.916 (99.989%)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>0.916 (0.011%)</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>0.916 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>0.916 (0.011%)</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>0.916 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0.916 (0.000%)</t>
-        </is>
-      </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.000 (0.02%)</t>
+          <t>1.832 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -22342,32 +22342,32 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.911 (-0.033%)</t>
+          <t>0.911 (99.967%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.911 (-0.033%)</t>
+          <t>0.911 (99.967%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.911 (-0.044%)</t>
+          <t>0.911 (-0.011%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.911 (-0.022%)</t>
+          <t>0.911 (99.978%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.910 (-0.110%)</t>
+          <t>0.910 (-0.088%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.911 (0.000%)</t>
+          <t>0.911 (100.000%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -22377,7 +22377,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>1.822 (199.96%)</t>
         </is>
       </c>
     </row>
@@ -22753,7 +22753,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>0.001 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -23053,7 +23053,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.003 (0.32%)</t>
+          <t>0.002 (0.22%)</t>
         </is>
       </c>
     </row>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.003 (0.30%)</t>
+          <t>0.002 (0.23%)</t>
         </is>
       </c>
     </row>
@@ -23173,7 +23173,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -23353,7 +23353,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -23473,7 +23473,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.002 (0.17%)</t>
+          <t>0.001 (0.15%)</t>
         </is>
       </c>
     </row>
@@ -23533,7 +23533,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.003 (0.25%)</t>
+          <t>0.001 (0.11%)</t>
         </is>
       </c>
     </row>
@@ -23593,7 +23593,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -23713,7 +23713,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.09%)</t>
         </is>
       </c>
     </row>
@@ -23953,7 +23953,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.006 (0.65%)</t>
+          <t>0.005 (0.55%)</t>
         </is>
       </c>
     </row>
@@ -24073,7 +24073,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>0.001 (0.11%)</t>
         </is>
       </c>
     </row>
@@ -24133,7 +24133,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>0.001 (0.14%)</t>
         </is>
       </c>
     </row>
@@ -24193,7 +24193,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.09%)</t>
         </is>
       </c>
     </row>
@@ -24373,7 +24373,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.003 (0.35%)</t>
+          <t>0.003 (0.34%)</t>
         </is>
       </c>
     </row>
